--- a/data/gRNAList.xlsx
+++ b/data/gRNAList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="357">
   <si>
     <t xml:space="preserve">Citation</t>
   </si>
@@ -40,15 +40,489 @@
     <t xml:space="preserve">Region</t>
   </si>
   <si>
+    <t xml:space="preserve">T5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTTAGACCAGATCTGAGCCT.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCTACAAGGGACTTTCCGCT.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGGGCCAGGGATCAGATATCCACTGACCTT.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.GAGTACTTCAAGAACTGCTGACATCGAGCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATTGGCAGAACTACACACC.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCGTGGCCTGGGCGGGACTG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gEnv-T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTATCAGCACTTGTGGAGAT.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Env</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gEnv-T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTGGGTCACAGTCTATTATG.NGG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gEnv-T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCACAGTTTTAATTGTGGAG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gLTR-T1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGTTAGACCAGATCTGAGCCTGG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gLTR-T2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGGAGCTCTCTGGCTAACTAGGG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gLTR-T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATTTTCCACACTGACTAAA.NGG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gP17-T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAGAGCGTCGGTATTAAGCG.NGG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gag/Pol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gP17-T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAAGGCTGTAGACAAATACT.NGG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gP24-T1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGTAAAAGTAGTAGAAGAGAAGG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gP24-T2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGCCAGATGAGAGAACCAAGGGG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gP24-T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAAATGATGACAGCATGTCA.NGG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gPol-T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATGGAAACCAAAAATGATA.NGG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gPol-T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAGACAACATCTGTTGAGGT.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gPol-T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTGATAAATGTCAGCTAAAA.NGG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gRev-T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GACCCACCTCCCAATCCCGA.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gRev-T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTGGAACTTCTGGGACGCAG.NGG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev/Env</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gU3-T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATTGGCAGAACTACACACC.NGG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gU3-T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCATGGGATGGAGGACCCGG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gU3-T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTGTGGCCTGGGCGGGACTG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gU5-T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCCCGTCTGTTGTGTGACTC.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gVif-T1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGAGAAAGAGACTGGCATTTGGG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gVif-T2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGTAGGATCTCTACAGTACTTGG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GACAAGATATCCTTGATCTG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.GTGCCTCTTCAGCTACCACC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.TGATTGGCAGAACTACACAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCTAGCAGTGGCGCCCGAAC.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.TCAGATCACTCTTTGGCAAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GACTTCTGGGAAGTTCAATT.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTAGGATCTGACTTAGAAAT.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGACAAGTAGACTGTAGTCC.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTAGCAGTTCATGTAGCCAG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.GACAGGCCCGAAGGAATAGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATCTGTGGATCTACCACACACA.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.CTCAGATGCTGCATATAAGCAGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.TGATCTGTGGATCTACCACAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.CACACAAGGCTACTTCCCTGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATCAGATATCCACTGACCTT.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.GAGGGAGAAGTATTAGTGTGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCCTCCTAGCATTTCGTCACA.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCATGGCCCGAGAGCTGCATC.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.GAGTACTACAAAGACTGCTGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCTGACATCGAGCTTTCTACA.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTCTACAAGGGACTTTCCGCT.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCTTTCCGCTGGGGACTTTCC.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-Ra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.CTGCTTAAGCCTCAATAAAGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-U5a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg101R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.GGGCCAGGGATCAGATATCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg107R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.GGGATCAGATATCCACTGACCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg122R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.CTGACCTTTGGATGGTGCTTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg125F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATCAGATATCCACTGACCTT.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg129F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGATATCCACTGACCTTTGGA.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg129R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.TTGGATGGTGCTTCAAGTTCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg155R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.GTTGAACCAGAGCAAGTAGCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg172F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGAACCAGAGCAAGTAGAAG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg221F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGTACACCCTATGAGCCAGCA.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg223R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.GCATGGGATGGAGGACCCGCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg225F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGGAGGGAGAAGTATTAGTG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg300R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.GAGAGCTGCATCCGGAGTACG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg349R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.CAAGGGACTTTCCGCTGGGCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg359F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGTCTACAAGGGACTTTCCGC.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg362F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGTACAAGGGACTTTCCGCTG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg362F.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGCAGAAGGGACTTTCCGCTG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg362F.v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGTGACTGGGACTTTCCGCTG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg362F.v3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGACAGAAGGGACTTTCCGCT.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg362F.v4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGTCCGCTGGGACTTTCCACT.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg363R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.CTGGGGACTTTCCAGGGAGCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg371F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGTTTCCGCTGGGGACTTTCC.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg373R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.TCCAGGGAGGTGTGGCCTGCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg45F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGACAAGAGATCCTTGATCTG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg62F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGTGTGGATCTACCACACACA.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg78F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGACAAGGCTACTTCCCTGAT.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg79R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.TGATTGGCAGAACTACACACG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg95F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGATTGGCAGAACTACACACC.NGG</t>
+  </si>
+  <si>
     <t xml:space="preserve">LTR-1</t>
   </si>
   <si>
-    <t xml:space="preserve">GACAAGATATCCTTGATCTG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR</t>
-  </si>
-  <si>
     <t xml:space="preserve">LTR-2</t>
   </si>
   <si>
@@ -64,9 +538,6 @@
     <t xml:space="preserve">LTR-4</t>
   </si>
   <si>
-    <t xml:space="preserve">GCTACAAGGGACTTTCCGCT.NGG</t>
-  </si>
-  <si>
     <t xml:space="preserve">LTR-5</t>
   </si>
   <si>
@@ -82,9 +553,6 @@
     <t xml:space="preserve">LTR-7</t>
   </si>
   <si>
-    <t xml:space="preserve">GCCCGTCTGTTGTGTGACTC.NGG</t>
-  </si>
-  <si>
     <t xml:space="preserve">sgRNA 1</t>
   </si>
   <si>
@@ -103,7 +571,7 @@
     <t xml:space="preserve">sgRNA 12</t>
   </si>
   <si>
-    <t xml:space="preserve">AGACCCTTTTAGTCAGTG.NGG</t>
+    <t xml:space="preserve">CAGACCCTTTTAGTCAGTG.NGG</t>
   </si>
   <si>
     <t xml:space="preserve">sgRNA 2</t>
@@ -133,7 +601,7 @@
     <t xml:space="preserve">sgRNA 6</t>
   </si>
   <si>
-    <t xml:space="preserve">ACAAGGGACTTTCCGCTG.NGG</t>
+    <t xml:space="preserve">TACAAGGGACTTTCCGCTG.NGG</t>
   </si>
   <si>
     <t xml:space="preserve">sgRNA 7</t>
@@ -145,13 +613,274 @@
     <t xml:space="preserve">sgRNA 8</t>
   </si>
   <si>
-    <t xml:space="preserve">CCTGGGCGGGACTGGGGAC.NGG</t>
+    <t xml:space="preserve">CCTGGGCGGGACTGGGGAG.NGG</t>
   </si>
   <si>
     <t xml:space="preserve">sgRNA 9</t>
   </si>
   <si>
-    <t xml:space="preserve">CTGCTTTTTGCCTGTAC.NGG</t>
+    <t xml:space="preserve">AGCTGCTTTTTGCCTGTAC.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gEnv1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTAACATTAGTAGAGCAAAA.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gEnv2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGAGCAGCAGGAAGCACTAT.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gGag1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTTAAAAGAGACCATCAATG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gGag2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCTACCATAATGATGCAAAG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gGagPol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gLTR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTGGCAGAACTACACACCA.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gLTR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATATCCACTGACCTTTGGA.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gLTR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGAGAGAAGTGTTAGAGTGG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gLTR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCGCCTAGCATTTCATCACG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gLTR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.AGCATTTCATCACGTGGCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gLTR6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gLTR7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.TCAGATGCTGCATATAAGCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gNef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCTATAAGATGGGTGGCAAG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gPol1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTACCAGTAAAATTAAAGCC.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gPol2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGGCAAGTCAGATTTACCCA.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gPol3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCATGGGTACCAGCACACAA.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gPol4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATTGGGGGGTACAGTGCAG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gTatRev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.ATGGCAGGAAGAAGCGGAGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tat/Rev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gVpr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAATAGGCGTTACTCAACAG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vpr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gRNA A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATCAGATATCCACTGACCTT.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gRNA B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.GAGTACTTCAAGAACTGCTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gag-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGCCAGATGAGAGAACCAAG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gag-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCCTTCCCACAAGGGAAGGCCA.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gag-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCGAGAGCGTCGGTATTAAGCG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gag-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGATAGATGTAAAAGACACCA.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.CTGGGGACTTTCCAGGGAGGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCCTGGGCGGGACTGGGGAG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.GTGAGCCTGCATGGGATGGAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCGGAGAGAGAAGTATTAGAG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pol-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCAGGATATGTAACTGACAG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pol-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnvT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnvT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnvV2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.GCTATAGGTTGATAAGTTGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnvV4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAAGGGTCAAATAACACTGA.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnvV5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGGTCCGAGATCTTCAGACC.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR-B sgRNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T10 sgRNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4 sgRNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.TCAGATCACTCTTTGGCAGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gRNA Gag D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gRNA- LTR 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCAGAACTACACACCAGGGCC.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.TATAGTGCAGAACCTCCAGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATGCAGGGCCTATTGCACC.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTATAGCCCTACCAGCATTC.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.GCTGTGATAAATGTCAGCTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATCAGTAACAGTACTGGATG.NGG</t>
   </si>
   <si>
     <t xml:space="preserve">gRNA 1</t>
@@ -166,9 +895,6 @@
     <t xml:space="preserve">gRNA 3</t>
   </si>
   <si>
-    <t xml:space="preserve">AGAGAGAAGTGTTAGAGTGG.NGG</t>
-  </si>
-  <si>
     <t xml:space="preserve">gRNA 4</t>
   </si>
   <si>
@@ -205,174 +931,6 @@
     <t xml:space="preserve">CAGACCCTTTTAGTCAGTGT.NGG</t>
   </si>
   <si>
-    <t xml:space="preserve">gEnv1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTAACATTAGTAGAGCAAAA.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Env</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gEnv2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGAGCAGCAGGAAGCACTAT.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gGag1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTTAAAAGAGACCATCAATG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gag/Pol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gGag2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCTACCATAATGATGCAAAG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gGagPol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.TCAGATCACTCTTTGGCAAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gNef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCTATAAGATGGGTGGCAAG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gPol1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTACCAGTAAAATTAAAGCC.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gPol2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGGCAAGTCAGATTTACCCA.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gPol3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCATGGGTACCAGCACACAA.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gPol4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GATTGGGGGGTACAGTGCAG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gTatRev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.ATGGCAGGAAGAAGCGGAGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tat/Rev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gVpr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAATAGGCGTTACTCAACAG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vpr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnvT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTATCAGCACTTGTGGAGAT.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnvT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCACAGTTTTAATTGTGGAG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnvV2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.GCTATAGGTTGATAAGTTGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnvV4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAAGGGTCAAATAACACTGA.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnvV5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGGTCCGAGATCTTCAGACC.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T10 sgRNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.GTGCCTCTTCAGCTACCACC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rev/Env</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4 sgRNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.TCAGATCACTCTTTGGCAGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gRNA Gag D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGATAGATGTAAAAGACACCA.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.TATAGTGCAGAACCTCCAGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATGCAGGGCCTATTGCACC.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTATAGCCCTACCAGCATTC.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.GCTGTGATAAATGTCAGCTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATCAGTAACAGTACTGGATG.NGG</t>
-  </si>
-  <si>
     <t xml:space="preserve">gRNA-RRE</t>
   </si>
   <si>
@@ -382,9 +940,6 @@
     <t xml:space="preserve">gRNA-TAR1</t>
   </si>
   <si>
-    <t xml:space="preserve">GTTAGACCAGATCTGAGCCT.NGG</t>
-  </si>
-  <si>
     <t xml:space="preserve">gRNA-TAR2</t>
   </si>
   <si>
@@ -400,9 +955,6 @@
     <t xml:space="preserve">gRNA-TataA1</t>
   </si>
   <si>
-    <t xml:space="preserve">CCN.TCAGATGCTGCATATAAGCA</t>
-  </si>
-  <si>
     <t xml:space="preserve">gRNA-TataA2</t>
   </si>
   <si>
@@ -424,490 +976,121 @@
     <t xml:space="preserve">CCN.TCAGATCACTCTTTGGCAAC </t>
   </si>
   <si>
+    <t xml:space="preserve">ATTGGCAGAACTACACACCA.NGG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gLTR1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gLTR7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.TCAGATGCTGCATATAAGCA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gLTR9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGCGTGGCCTGGGCGGGACT.NGG </t>
+  </si>
+  <si>
     <t xml:space="preserve">CCN.ATGGCAGGAAGAAGCGGAGA </t>
   </si>
   <si>
-    <t xml:space="preserve">T5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGGGCCAGGGATCAGATATCCACTGACCTT.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.GAGTACTTCAAGAACTGCTGACATCGAGCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GATTGGCAGAACTACACACC.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCGTGGCCTGGGCGGGACTG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCTAGCAGTGGCGCCCGAAC.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gLTR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATTGGCAGAACTACACACCA.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gLTR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GATATCCACTGACCTTTGGA.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gLTR3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gLTR4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCGCCTAGCATTTCATCACG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gLTR5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.AGCATTTCATCACGTGGCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gLTR6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gLTR7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gRNA A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gRNA B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-B sgRNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.GAGTACTTCAAGAACTGCTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gRNA- LTR 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCAGAACTACACACCAGGGCC.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATTGGCAGAACTACACACCA.NGG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gLTR1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gLTR7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.TCAGATGCTGCATATAAGCA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gLTR9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGCGTGGCCTGGGCGGGACT.NGG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gLTR-T1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGTTAGACCAGATCTGAGCCTGG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gLTR-T2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGGAGCTCTCTGGCTAACTAGGG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gP24-T1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGTAAAAGTAGTAGAAGAGAAGG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gP24-T2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGCCAGATGAGAGAACCAAGGGG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gVif-T1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGAGAAAGAGACTGGCATTTGGG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gVif-T2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGTAGGATCTCTACAGTACTTGG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">gp41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.TGATTGGCAGAACTACACAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GACTTCTGGGAAGTTCAATT.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTAGGATCTGACTTAGAAAT.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGACAAGTAGACTGTAGTCC.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTAGCAGTTCATGTAGCCAG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.GACAGGCCCGAAGGAATAGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GATCTGTGGATCTACCACACACA.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.CTCAGATGCTGCATATAAGCAGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.TGATCTGTGGATCTACCACAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.CACACAAGGCTACTTCCCTGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GATCAGATATCCACTGACCTT.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.GAGGGAGAAGTATTAGTGTGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCCTCCTAGCATTTCGTCACA.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCATGGCCCGAGAGCTGCATC.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.GAGTACTACAAAGACTGCTGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCTGACATCGAGCTTTCTACA.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTCTACAAGGGACTTTCCGCT.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCTTTCCGCTGGGGACTTTCC.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-Ra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.CTGCTTAAGCCTCAATAAAGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-U5a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg101R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.GGGCCAGGGATCAGATATCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg107R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.GGGATCAGATATCCACTGACCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg122R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.CTGACCTTTGGATGGTGCTTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg125F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATCAGATATCCACTGACCTT.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg129F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGATATCCACTGACCTTTGGA.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg129R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.TTGGATGGTGCTTCAAGTTCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg155R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.GTTGAACCAGAGCAAGTAGCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg172F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGAACCAGAGCAAGTAGAAG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg221F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGTACACCCTATGAGCCAGCA.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg223R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.GCATGGGATGGAGGACCCGCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg225F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGGAGGGAGAAGTATTAGTG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg300R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.GAGAGCTGCATCCGGAGTACG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg349R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.CAAGGGACTTTCCGCTGGGCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg359F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGTCTACAAGGGACTTTCCGC.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg362F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGTACAAGGGACTTTCCGCTG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg362F.v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGCAGAAGGGACTTTCCGCTG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg362F.v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGTGACTGGGACTTTCCGCTG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg362F.v3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGACAGAAGGGACTTTCCGCT.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg362F.v4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGTCCGCTGGGACTTTCCACT.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg363R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.CTGGGGACTTTCCAGGGAGCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg371F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGTTTCCGCTGGGGACTTTCC.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg373R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.TCCAGGGAGGTGTGGCCTGCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg45F </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGACAAGAGATCCTTGATCTG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg62F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGTGTGGATCTACCACACACA.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg78F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGACAAGGCTACTTCCCTGAT.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg79R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.TGATTGGCAGAACTACACACG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sg95F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGATTGGCAGAACTACACACC.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gag-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGCCAGATGAGAGAACCAAG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gag-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCCTTCCCACAAGGGAAGGCCA.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gag-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCGAGAGCGTCGGTATTAAGCG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gag-D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.CTGGGGACTTTCCAGGGAGGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCCTGGGCGGGACTGGGGAG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCN.GTGAGCCTGCATGGGATGGAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTR-T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCGGAGAGAGAAGTATTAGAG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pol-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCAGGATATGTAACTGACAG.NGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pol-B</t>
+    <t xml:space="preserve">IN1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.AGATGAACATGAGAAATATC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.GCAGAAACAGGGCAGGAAAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.GTGCTACGGTTAAGGCCGCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCCGGTAAAAACAATACATA.NGG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.GGGCGGGACTGGGGAGTGGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTC.TGGTTAGACCAGATCTGAGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCGGGGGAGAATTAGATCGA.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATGGAAACCAAAAATGATA.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCTATAGGTACAGTATTAGT.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA.AAGGAAGCTCTATTAGATAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCAACTAAAGGAAGCTCTAT.TAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGAAGCTCTATTAGATACAG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTACAGAGATGGAAAAGGAA.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.GAAAATCCATACAATACTCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTT.TTAGAAAACAAAATCCAGAC</t>
   </si>
 </sst>
 </file>
@@ -1024,16 +1207,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.8825910931174"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1059,16 +1243,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>26607397</v>
+        <v>23974631</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>28</v>
+        <v>465</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>47</v>
+        <v>484</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>7</v>
@@ -1079,16 +1263,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>26607397</v>
+        <v>23974631</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>97</v>
+        <v>362</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
@@ -1099,13 +1283,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>26607397</v>
+        <v>25049410</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>127</v>
@@ -1119,16 +1303,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>26607397</v>
+        <v>25049410</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>14</v>
@@ -1139,16 +1323,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>26607397</v>
+        <v>25049410</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>379</v>
+        <v>78</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>398</v>
+        <v>97</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>16</v>
@@ -1159,16 +1343,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>26607397</v>
+        <v>25049410</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>464</v>
+        <v>380</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>483</v>
+        <v>399</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>18</v>
@@ -1179,79 +1363,79 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>26607397</v>
+        <v>25752527</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>562</v>
+        <v>6242</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>581</v>
+        <v>6261</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>26775808</v>
+        <v>25752527</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>6326</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>6345</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>26775808</v>
+        <v>25752527</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>466</v>
+        <v>7343</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>484</v>
+        <v>7362</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>26775808</v>
+        <v>25752527</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>563</v>
+        <v>464</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>581</v>
+        <v>486</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>8</v>
@@ -1259,19 +1443,19 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>26775808</v>
+        <v>25752527</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>601</v>
+        <v>485</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>618</v>
+        <v>507</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>8</v>
@@ -1279,19 +1463,19 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>26775808</v>
+        <v>25752527</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>80</v>
+        <v>608</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>98</v>
+        <v>627</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>8</v>
@@ -1299,219 +1483,219 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>26775808</v>
+        <v>25752527</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>113</v>
+        <v>798</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>131</v>
+        <v>817</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>26775808</v>
+        <v>25752527</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>291</v>
+        <v>952</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>309</v>
+        <v>971</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>26775808</v>
+        <v>25752527</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1254</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1276</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>331</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>349</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>26775808</v>
+        <v>25752527</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>346</v>
+        <v>1465</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>363</v>
+        <v>1487</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>26775808</v>
+        <v>25752527</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>356</v>
+        <v>1822</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>375</v>
+        <v>1841</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>26775808</v>
+        <v>25752527</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>386</v>
+        <v>2374</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>404</v>
+        <v>2393</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>26775808</v>
+        <v>25752527</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>436</v>
+        <v>3164</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>452</v>
+        <v>3183</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>27341108</v>
+        <v>25752527</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>28</v>
+        <v>4348</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>47</v>
+        <v>4367</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>27341108</v>
+        <v>25752527</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>165</v>
+        <v>8378</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>184</v>
+        <v>8397</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>27341108</v>
+        <v>25752527</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>241</v>
+        <v>8568</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>260</v>
+        <v>8587</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>27341108</v>
+        <v>25752527</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>291</v>
+        <v>97</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>8</v>
@@ -1519,19 +1703,19 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>27341108</v>
+        <v>25752527</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>8</v>
@@ -1539,19 +1723,19 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>27341108</v>
+        <v>25752527</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>309</v>
+        <v>399</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>8</v>
@@ -1559,19 +1743,19 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>27341108</v>
+        <v>25752527</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>329</v>
+        <v>562</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>348</v>
+        <v>581</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>8</v>
@@ -1579,59 +1763,59 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>27341108</v>
+        <v>25752527</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>354</v>
+        <v>5263</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>373</v>
+        <v>5285</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>27341108</v>
+        <v>25752527</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>267</v>
+        <v>5463</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>388</v>
+        <v>5485</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>27341108</v>
+        <v>25808449</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>600</v>
+        <v>28</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>619</v>
+        <v>47</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>8</v>
@@ -1639,539 +1823,539 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>26796669</v>
+        <v>25808449</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>7216</v>
+        <v>8532</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>7235</v>
+        <v>8513</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>26796669</v>
+        <v>25808449</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>7794</v>
+        <v>77</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>7813</v>
+        <v>96</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>26796669</v>
+        <v>25808449</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>1389</v>
+        <v>628</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>1408</v>
+        <v>635</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>26796669</v>
+        <v>25808449</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>1909</v>
+        <v>2255</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1928</v>
+        <v>2274</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>26796669</v>
+        <v>25808449</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>2255</v>
+        <v>2805</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>2274</v>
+        <v>2824</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>26796669</v>
+        <v>25808449</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>8789</v>
+        <v>3114</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>8808</v>
+        <v>3133</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>26796669</v>
+        <v>25808449</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>2571</v>
+        <v>4383</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>2590</v>
+        <v>4402</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>26796669</v>
+        <v>25808449</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>3346</v>
+        <v>4452</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>3365</v>
+        <v>4471</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>26796669</v>
+        <v>25808449</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>4149</v>
+        <v>8406</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>4168</v>
+        <v>8425</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>26796669</v>
+        <v>26538064</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>4799</v>
+        <v>78</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>4818</v>
+        <v>97</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>26796669</v>
+        <v>26538064</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>5970</v>
+        <v>380</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>5989</v>
+        <v>399</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>26796669</v>
+        <v>26538064</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>5798</v>
+        <v>42</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>5817</v>
+        <v>64</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>27068471</v>
+        <v>26538064</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>6244</v>
+        <v>414</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>6261</v>
+        <v>436</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>27068471</v>
+        <v>26538064</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>7343</v>
+        <v>41</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>7362</v>
+        <v>61</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>27068471</v>
+        <v>26538064</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>6793</v>
+        <v>59</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>6812</v>
+        <v>79</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>27068471</v>
+        <v>26538064</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>7431</v>
+        <v>107</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>7450</v>
+        <v>127</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>27068471</v>
+        <v>26538064</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>7614</v>
+        <v>240</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>7633</v>
+        <v>260</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>27068471</v>
+        <v>26538064</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>8513</v>
+        <v>271</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>8532</v>
+        <v>291</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>27068471</v>
+        <v>26538064</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>2255</v>
+        <v>289</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>2274</v>
+        <v>309</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>27194423</v>
+        <v>26538064</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>1061</v>
+        <v>312</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>1081</v>
+        <v>332</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>27278725</v>
+        <v>26538064</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>1188</v>
+        <v>328</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1207</v>
+        <v>348</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>27278725</v>
+        <v>26538064</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>1444</v>
+        <v>342</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>1463</v>
+        <v>362</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>27278725</v>
+        <v>26538064</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>1617</v>
+        <v>353</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>1636</v>
+        <v>373</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>27278725</v>
+        <v>26538064</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>4345</v>
+        <v>514</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>4364</v>
+        <v>534</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>27278725</v>
+        <v>26538064</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>2861</v>
+        <v>562</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>2880</v>
+        <v>581</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>27404981</v>
+        <v>26581162</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>7782</v>
+        <v>99</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>7801</v>
+        <v>118</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>27404981</v>
+        <v>26581162</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>465</v>
+        <v>105</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>484</v>
+        <v>126</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>8</v>
@@ -2179,19 +2363,19 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>27404981</v>
+        <v>26581162</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>474</v>
+        <v>120</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>493</v>
+        <v>140</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>8</v>
@@ -2199,19 +2383,19 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>27404981</v>
+        <v>26581162</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>485</v>
+        <v>107</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>504</v>
+        <v>127</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>8</v>
@@ -2219,19 +2403,19 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>27404981</v>
+        <v>26581162</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>415</v>
+        <v>111</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>434</v>
+        <v>131</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>8</v>
@@ -2239,19 +2423,19 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>27404981</v>
+        <v>26581162</v>
       </c>
       <c r="B61" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="C61" s="0" t="n">
-        <v>434</v>
-      </c>
       <c r="D61" s="0" t="n">
-        <v>453</v>
+        <v>147</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>8</v>
@@ -2259,159 +2443,159 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>27974196</v>
+        <v>26581162</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>7794</v>
+        <v>153</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>7813</v>
+        <v>173</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>27974196</v>
+        <v>26581162</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>1389</v>
+        <v>155</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>1408</v>
+        <v>174</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>27974196</v>
+        <v>26581162</v>
       </c>
       <c r="B64" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="E64" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="0" t="n">
-        <v>1483</v>
-      </c>
-      <c r="D64" s="0" t="n">
-        <v>1502</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>130</v>
-      </c>
       <c r="F64" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>27974196</v>
+        <v>26581162</v>
       </c>
       <c r="B65" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>241</v>
+      </c>
+      <c r="E65" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="0" t="n">
-        <v>1827</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>1846</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>132</v>
-      </c>
       <c r="F65" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>27974196</v>
+        <v>26581162</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>2255</v>
+        <v>238</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>2274</v>
+        <v>257</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>133</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>27974196</v>
+        <v>26581162</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>4149</v>
+        <v>298</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>4168</v>
+        <v>318</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>27974196</v>
+        <v>26581162</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>5970</v>
+        <v>347</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>5989</v>
+        <v>367</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>23974631</v>
+        <v>26581162</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>465</v>
+        <v>340</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>484</v>
+        <v>361</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>8</v>
@@ -2419,19 +2603,19 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>25049410</v>
+        <v>26581162</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>98</v>
+        <v>343</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>127</v>
+        <v>363</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>8</v>
@@ -2439,19 +2623,19 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>25049410</v>
+        <v>26581162</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>8</v>
@@ -2459,19 +2643,19 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>25049410</v>
+        <v>26581162</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>97</v>
+        <v>363</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>8</v>
@@ -2479,19 +2663,19 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
-        <v>25049410</v>
+        <v>26581162</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>8</v>
@@ -2499,19 +2683,19 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
-        <v>25808449</v>
+        <v>26581162</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>28</v>
+        <v>355</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>47</v>
+        <v>376</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="F74" s="0" t="s">
         <v>8</v>
@@ -2519,19 +2703,19 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>25808449</v>
+        <v>26581162</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>628</v>
+        <v>361</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>635</v>
+        <v>382</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>8</v>
@@ -2539,19 +2723,19 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>26796669</v>
+        <v>26581162</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>98</v>
+        <v>373</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>8</v>
@@ -2559,19 +2743,19 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
-        <v>26796669</v>
+        <v>26581162</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>112</v>
+        <v>371</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>131</v>
+        <v>391</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>8</v>
@@ -2579,19 +2763,19 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
-        <v>26796669</v>
+        <v>26581162</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>260</v>
+        <v>47</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>8</v>
@@ -2599,19 +2783,19 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
-        <v>26796669</v>
+        <v>26581162</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>291</v>
+        <v>64</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>8</v>
@@ -2619,19 +2803,19 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
-        <v>26796669</v>
+        <v>26581162</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>272</v>
+        <v>60</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F80" s="0" t="s">
         <v>8</v>
@@ -2639,19 +2823,19 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
-        <v>26796669</v>
+        <v>26581162</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>297</v>
+        <v>97</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F81" s="0" t="s">
         <v>8</v>
@@ -2659,19 +2843,19 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
-        <v>26796669</v>
+        <v>26581162</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>362</v>
+        <v>97</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="F82" s="0" t="s">
         <v>8</v>
@@ -2679,19 +2863,19 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
-        <v>26796669</v>
+        <v>26607397</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>415</v>
+        <v>28</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>434</v>
+        <v>47</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="F83" s="0" t="s">
         <v>8</v>
@@ -2699,19 +2883,19 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
-        <v>26939770</v>
+        <v>26607397</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="F84" s="0" t="s">
         <v>8</v>
@@ -2719,19 +2903,19 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
-        <v>26939770</v>
+        <v>26607397</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>312</v>
+        <v>108</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>341</v>
+        <v>127</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="F85" s="0" t="s">
         <v>8</v>
@@ -2739,19 +2923,19 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
-        <v>27068471</v>
+        <v>26607397</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>8</v>
@@ -2759,19 +2943,19 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
-        <v>27194423</v>
+        <v>26607397</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>83</v>
+        <v>379</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>103</v>
+        <v>398</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="F87" s="0" t="s">
         <v>8</v>
@@ -2779,19 +2963,19 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
-        <v>27974196</v>
+        <v>26607397</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>98</v>
+        <v>483</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="F88" s="0" t="s">
         <v>8</v>
@@ -2799,19 +2983,19 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
-        <v>27974196</v>
+        <v>26607397</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>79</v>
+        <v>562</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>98</v>
+        <v>581</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>8</v>
@@ -2819,19 +3003,19 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
-        <v>27974196</v>
+        <v>26775808</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>415</v>
+        <v>28</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>434</v>
+        <v>47</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="F90" s="0" t="s">
         <v>8</v>
@@ -2839,19 +3023,19 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
-        <v>27974196</v>
+        <v>26775808</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>379</v>
+        <v>466</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>398</v>
+        <v>484</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>8</v>
@@ -2859,19 +3043,19 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
-        <v>25752527</v>
+        <v>26775808</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>464</v>
+        <v>563</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>486</v>
+        <v>581</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>8</v>
@@ -2879,19 +3063,19 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
-        <v>25752527</v>
+        <v>26775808</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>485</v>
+        <v>601</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>507</v>
+        <v>618</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F93" s="0" t="s">
         <v>8</v>
@@ -2899,119 +3083,119 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
-        <v>25752527</v>
+        <v>26775808</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>1254</v>
+        <v>80</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>1276</v>
+        <v>98</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
-        <v>25752527</v>
+        <v>26775808</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>1465</v>
+        <v>113</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>1487</v>
+        <v>131</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
-        <v>25752527</v>
+        <v>26775808</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>5263</v>
+        <v>291</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>5285</v>
+        <v>309</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
-        <v>25752527</v>
+        <v>26775808</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>5463</v>
+        <v>331</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>5485</v>
+        <v>349</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
-        <v>25808449</v>
+        <v>26775808</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>8532</v>
+        <v>346</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>8513</v>
+        <v>363</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>184</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
-        <v>25808449</v>
+        <v>26775808</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>96</v>
+        <v>375</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F99" s="0" t="s">
         <v>8</v>
@@ -3019,159 +3203,159 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
-        <v>25808449</v>
+        <v>26775808</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>2255</v>
+        <v>386</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>2274</v>
+        <v>404</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
-        <v>25808449</v>
+        <v>26775808</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>2805</v>
+        <v>436</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>2824</v>
+        <v>452</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
-        <v>25808449</v>
+        <v>26796669</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>3114</v>
+        <v>7216</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>3133</v>
+        <v>7235</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
-        <v>25808449</v>
+        <v>26796669</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>4383</v>
+        <v>7794</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>4402</v>
+        <v>7813</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
-        <v>25808449</v>
+        <v>26796669</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>4452</v>
+        <v>1389</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>4471</v>
+        <v>1408</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
-        <v>25808449</v>
+        <v>26796669</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>8406</v>
+        <v>1909</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>8425</v>
+        <v>1928</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
-        <v>26538064</v>
+        <v>26796669</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>78</v>
+        <v>2255</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>97</v>
+        <v>2274</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
-        <v>26538064</v>
+        <v>26796669</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>399</v>
+        <v>98</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>8</v>
@@ -3179,19 +3363,19 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
-        <v>26538064</v>
+        <v>26796669</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="F108" s="0" t="s">
         <v>8</v>
@@ -3199,19 +3383,19 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
-        <v>26538064</v>
+        <v>26796669</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>414</v>
+        <v>241</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>436</v>
+        <v>260</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>8</v>
@@ -3219,19 +3403,19 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
-        <v>26538064</v>
+        <v>26796669</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>61</v>
+        <v>291</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F110" s="0" t="s">
         <v>8</v>
@@ -3239,19 +3423,19 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
-        <v>26538064</v>
+        <v>26796669</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>59</v>
+        <v>278</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F111" s="0" t="s">
         <v>8</v>
@@ -3259,19 +3443,19 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
-        <v>26538064</v>
+        <v>26796669</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>107</v>
+        <v>343</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>127</v>
+        <v>362</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="F112" s="0" t="s">
         <v>8</v>
@@ -3279,19 +3463,19 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
-        <v>26538064</v>
+        <v>26796669</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>240</v>
+        <v>415</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>260</v>
+        <v>434</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="F113" s="0" t="s">
         <v>8</v>
@@ -3299,159 +3483,159 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
-        <v>26538064</v>
+        <v>26796669</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>271</v>
+        <v>8789</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>291</v>
+        <v>8808</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>8</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
-        <v>26538064</v>
+        <v>26796669</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>289</v>
+        <v>2571</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>309</v>
+        <v>2590</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
-        <v>26538064</v>
+        <v>26796669</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>312</v>
+        <v>3346</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>332</v>
+        <v>3365</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
-        <v>26538064</v>
+        <v>26796669</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>328</v>
+        <v>4149</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>348</v>
+        <v>4168</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
-        <v>26538064</v>
+        <v>26796669</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>342</v>
+        <v>4799</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>362</v>
+        <v>4818</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
-        <v>26538064</v>
+        <v>26796669</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>353</v>
+        <v>5970</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>373</v>
+        <v>5989</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
-        <v>26538064</v>
+        <v>26796669</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>514</v>
+        <v>5798</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>534</v>
+        <v>5817</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
-        <v>26538064</v>
+        <v>26939770</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>562</v>
+        <v>98</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>581</v>
+        <v>127</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F121" s="0" t="s">
         <v>8</v>
@@ -3459,19 +3643,19 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
-        <v>26581162</v>
+        <v>26939770</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="F122" s="0" t="s">
         <v>8</v>
@@ -3479,19 +3663,19 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
-        <v>26581162</v>
+        <v>26939770</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>105</v>
+        <v>312</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>126</v>
+        <v>341</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="F123" s="0" t="s">
         <v>8</v>
@@ -3499,19 +3683,19 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
-        <v>26581162</v>
+        <v>26939770</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>140</v>
+        <v>331</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>8</v>
@@ -3519,99 +3703,99 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>107</v>
+        <v>1465</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>127</v>
+        <v>1484</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>111</v>
+        <v>2103</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>131</v>
+        <v>2124</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>127</v>
+        <v>796</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>147</v>
+        <v>817</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>153</v>
+        <v>1061</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>173</v>
+        <v>1081</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="F129" s="0" t="s">
         <v>8</v>
@@ -3619,19 +3803,19 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>203</v>
+        <v>312</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="F130" s="0" t="s">
         <v>8</v>
@@ -3639,19 +3823,19 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>241</v>
+        <v>97</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>8</v>
@@ -3659,19 +3843,19 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>244</v>
+        <v>17</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>238</v>
+        <v>380</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>257</v>
+        <v>399</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="F132" s="0" t="s">
         <v>8</v>
@@ -3679,19 +3863,19 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>246</v>
+        <v>85</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>298</v>
+        <v>42</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>318</v>
+        <v>64</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>247</v>
+        <v>86</v>
       </c>
       <c r="F133" s="0" t="s">
         <v>8</v>
@@ -3699,19 +3883,19 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>248</v>
+        <v>87</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>347</v>
+        <v>414</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>249</v>
+        <v>88</v>
       </c>
       <c r="F134" s="0" t="s">
         <v>8</v>
@@ -3719,19 +3903,19 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>340</v>
+        <v>41</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>361</v>
+        <v>61</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="F135" s="0" t="s">
         <v>8</v>
@@ -3739,19 +3923,19 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>252</v>
+        <v>91</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>343</v>
+        <v>59</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>253</v>
+        <v>92</v>
       </c>
       <c r="F136" s="0" t="s">
         <v>8</v>
@@ -3759,19 +3943,19 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>254</v>
+        <v>93</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>342</v>
+        <v>107</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>363</v>
+        <v>127</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="F137" s="0" t="s">
         <v>8</v>
@@ -3779,19 +3963,19 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>342</v>
+        <v>240</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>363</v>
+        <v>260</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>257</v>
+        <v>96</v>
       </c>
       <c r="F138" s="0" t="s">
         <v>8</v>
@@ -3799,19 +3983,19 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>258</v>
+        <v>97</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>342</v>
+        <v>271</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>362</v>
+        <v>291</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>259</v>
+        <v>98</v>
       </c>
       <c r="F139" s="0" t="s">
         <v>8</v>
@@ -3819,19 +4003,19 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>376</v>
+        <v>309</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c r="F140" s="0" t="s">
         <v>8</v>
@@ -3839,19 +4023,19 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>262</v>
+        <v>101</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="F141" s="0" t="s">
         <v>8</v>
@@ -3859,19 +4043,19 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>264</v>
+        <v>103</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>265</v>
+        <v>104</v>
       </c>
       <c r="F142" s="0" t="s">
         <v>8</v>
@@ -3879,19 +4063,19 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>266</v>
+        <v>105</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>267</v>
+        <v>106</v>
       </c>
       <c r="F143" s="0" t="s">
         <v>8</v>
@@ -3899,19 +4083,19 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>27</v>
+        <v>353</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>47</v>
+        <v>373</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>269</v>
+        <v>108</v>
       </c>
       <c r="F144" s="0" t="s">
         <v>8</v>
@@ -3919,19 +4103,19 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>44</v>
+        <v>361</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>64</v>
+        <v>381</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="F145" s="0" t="s">
         <v>8</v>
@@ -3939,19 +4123,19 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>60</v>
+        <v>385</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="F146" s="0" t="s">
         <v>8</v>
@@ -3959,19 +4143,19 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="F147" s="0" t="s">
         <v>8</v>
@@ -3979,19 +4163,19 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
-        <v>26581162</v>
+        <v>26990633</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="F148" s="0" t="s">
         <v>8</v>
@@ -4002,19 +4186,19 @@
         <v>26990633</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>1465</v>
+        <v>4294</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>1484</v>
+        <v>4313</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4022,136 +4206,136 @@
         <v>26990633</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>2103</v>
+        <v>4149</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>2124</v>
+        <v>4168</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
-        <v>26990633</v>
+        <v>27068471</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>796</v>
+        <v>6244</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>817</v>
+        <v>6261</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>283</v>
+        <v>20</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
-        <v>26990633</v>
+        <v>27068471</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>1061</v>
+        <v>7343</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>1081</v>
+        <v>7362</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
-        <v>26990633</v>
+        <v>27068471</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>136</v>
+        <v>264</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>98</v>
+        <v>6793</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>127</v>
+        <v>6812</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>137</v>
+        <v>265</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
-        <v>26990633</v>
+        <v>27068471</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>312</v>
+        <v>7431</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>341</v>
+        <v>7450</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>139</v>
+        <v>267</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
-        <v>26990633</v>
+        <v>27068471</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>140</v>
+        <v>268</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>78</v>
+        <v>7614</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>97</v>
+        <v>7633</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>141</v>
+        <v>269</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
-        <v>26990633</v>
+        <v>27068471</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>142</v>
+        <v>270</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>399</v>
+        <v>331</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="F156" s="0" t="s">
         <v>8</v>
@@ -4159,79 +4343,79 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
-        <v>26990633</v>
+        <v>27068471</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>42</v>
+        <v>8513</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>64</v>
+        <v>8532</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
-        <v>26990633</v>
+        <v>27068471</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>414</v>
+        <v>2255</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>436</v>
+        <v>2274</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
-        <v>26990633</v>
+        <v>27194423</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>201</v>
+        <v>274</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>41</v>
+        <v>1061</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>61</v>
+        <v>1081</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
-        <v>26990633</v>
+        <v>27194423</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>204</v>
+        <v>276</v>
       </c>
       <c r="F160" s="0" t="s">
         <v>8</v>
@@ -4239,119 +4423,119 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
-        <v>26990633</v>
+        <v>27278725</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>205</v>
+        <v>277</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>107</v>
+        <v>1188</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>127</v>
+        <v>1207</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>206</v>
+        <v>278</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
-        <v>26990633</v>
+        <v>27278725</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>240</v>
+        <v>1444</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>260</v>
+        <v>1463</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
-        <v>26990633</v>
+        <v>27278725</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>271</v>
+        <v>1617</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>291</v>
+        <v>1636</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
-        <v>26990633</v>
+        <v>27278725</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>211</v>
+        <v>283</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>289</v>
+        <v>4345</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>309</v>
+        <v>4364</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>212</v>
+        <v>284</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
-        <v>26990633</v>
+        <v>27278725</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>312</v>
+        <v>2861</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>332</v>
+        <v>2880</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
-        <v>26990633</v>
+        <v>27278725</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>328</v>
+        <v>465</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>348</v>
+        <v>484</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
       <c r="F166" s="0" t="s">
         <v>8</v>
@@ -4359,19 +4543,19 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
-        <v>26990633</v>
+        <v>27341108</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>217</v>
+        <v>287</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>342</v>
+        <v>28</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>362</v>
+        <v>47</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="F167" s="0" t="s">
         <v>8</v>
@@ -4379,19 +4563,19 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
-        <v>26990633</v>
+        <v>27341108</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>219</v>
+        <v>288</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>353</v>
+        <v>165</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>373</v>
+        <v>184</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>220</v>
+        <v>289</v>
       </c>
       <c r="F168" s="0" t="s">
         <v>8</v>
@@ -4399,19 +4583,19 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
-        <v>26990633</v>
+        <v>27341108</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>361</v>
+        <v>241</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="F169" s="0" t="s">
         <v>8</v>
@@ -4419,19 +4603,19 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
-        <v>26990633</v>
+        <v>27341108</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>385</v>
+        <v>272</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>404</v>
+        <v>291</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F170" s="0" t="s">
         <v>8</v>
@@ -4439,19 +4623,19 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
-        <v>26990633</v>
+        <v>27341108</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F171" s="0" t="s">
         <v>8</v>
@@ -4459,19 +4643,19 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
-        <v>26990633</v>
+        <v>27341108</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>237</v>
+        <v>329</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>257</v>
+        <v>348</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F172" s="0" t="s">
         <v>8</v>
@@ -4479,42 +4663,782 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
-        <v>26990633</v>
+        <v>27341108</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>4294</v>
+        <v>354</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>4313</v>
+        <v>373</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
-        <v>26990633</v>
+        <v>27341108</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C174" s="0" t="n">
+        <v>267</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>388</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="F174" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="n">
+        <v>27341108</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>619</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="F175" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="n">
+        <v>27404981</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>7782</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>7801</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="F176" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="n">
+        <v>27404981</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>465</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>484</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="n">
+        <v>27404981</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C178" s="0" t="n">
+        <v>474</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>493</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="F178" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="n">
+        <v>27404981</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>485</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>504</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="F179" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="n">
+        <v>27404981</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>415</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>434</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F180" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="n">
+        <v>27404981</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>434</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>453</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="F181" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="n">
+        <v>27528385</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C182" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F182" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="n">
+        <v>27528385</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C183" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <v>331</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="F183" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="n">
+        <v>27974196</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C184" s="0" t="n">
+        <v>7794</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>7813</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F184" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="n">
+        <v>27974196</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C185" s="0" t="n">
+        <v>1389</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>1408</v>
+      </c>
+      <c r="E185" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="F185" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="n">
+        <v>27974196</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="C186" s="0" t="n">
+        <v>1483</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>1502</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="F186" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="n">
+        <v>27974196</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C187" s="0" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>1846</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="F187" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="n">
+        <v>27974196</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C188" s="0" t="n">
+        <v>2255</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>2274</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="F188" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="n">
+        <v>27974196</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C189" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="F189" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="n">
+        <v>27974196</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C190" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F190" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="n">
+        <v>27974196</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C191" s="0" t="n">
+        <v>415</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>434</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="F191" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="n">
+        <v>27974196</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C192" s="0" t="n">
+        <v>379</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="F192" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="n">
+        <v>27974196</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C193" s="0" t="n">
         <v>4149</v>
       </c>
-      <c r="D174" s="0" t="n">
+      <c r="D193" s="0" t="n">
         <v>4168</v>
       </c>
-      <c r="E174" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F174" s="0" t="s">
-        <v>68</v>
+      <c r="E193" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="F193" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="n">
+        <v>27974196</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C194" s="0" t="n">
+        <v>5970</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>5989</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="F194" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="n">
+        <v>28176813</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C195" s="0" t="n">
+        <v>4256</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>4275</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="F195" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="n">
+        <v>28176813</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C196" s="0" t="n">
+        <v>4383</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>4402</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F196" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="n">
+        <v>28176813</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C197" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>4519</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="F197" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="n">
+        <v>28176813</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C198" s="0" t="n">
+        <v>4597</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>4616</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="F198" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="n">
+        <v>28176813</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C199" s="0" t="n">
+        <v>4553</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>4572</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="F199" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="n">
+        <v>28176813</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C200" s="0" t="n">
+        <v>389</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>408</v>
+      </c>
+      <c r="E200" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="F200" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="n">
+        <v>28176813</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>463</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>482</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="F201" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="n">
+        <v>28176813</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="C202" s="0" t="n">
+        <v>815</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>834</v>
+      </c>
+      <c r="E202" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="F202" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="n">
+        <v>28176813</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C203" s="0" t="n">
+        <v>2374</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <v>2393</v>
+      </c>
+      <c r="E203" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="F203" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="n">
+        <v>28176813</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C204" s="0" t="n">
+        <v>2463</v>
+      </c>
+      <c r="D204" s="0" t="n">
+        <v>2482</v>
+      </c>
+      <c r="E204" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="F204" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="n">
+        <v>28176813</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C205" s="0" t="n">
+        <v>2310</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <v>2329</v>
+      </c>
+      <c r="E205" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="F205" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="n">
+        <v>28176813</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C206" s="0" t="n">
+        <v>2303</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <v>2322</v>
+      </c>
+      <c r="E206" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="F206" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="n">
+        <v>28176813</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C207" s="0" t="n">
+        <v>2312</v>
+      </c>
+      <c r="D207" s="0" t="n">
+        <v>2331</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="F207" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="n">
+        <v>28176813</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C208" s="0" t="n">
+        <v>2662</v>
+      </c>
+      <c r="D208" s="0" t="n">
+        <v>2681</v>
+      </c>
+      <c r="E208" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="F208" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="n">
+        <v>28176813</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C209" s="0" t="n">
+        <v>2706</v>
+      </c>
+      <c r="D209" s="0" t="n">
+        <v>2725</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="F209" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="n">
+        <v>28176813</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C210" s="0" t="n">
+        <v>2805</v>
+      </c>
+      <c r="D210" s="0" t="n">
+        <v>2824</v>
+      </c>
+      <c r="E210" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F210" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="n">
+        <v>28176813</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="C211" s="0" t="n">
+        <v>3061</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <v>3080</v>
+      </c>
+      <c r="E211" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="F211" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/gRNAList.xlsx
+++ b/data/gRNAList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="384">
   <si>
     <t xml:space="preserve">Citation</t>
   </si>
@@ -1091,6 +1091,87 @@
   </si>
   <si>
     <t xml:space="preserve">CTT.TTAGAAAACAAAATCCAGAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gRNA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TTAGACCAGATCTGAGCCT.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN.GACTGTACTGGGTCTCTCTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gLTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gnef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTGGCTAGAAGCACAAGAGG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gtat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCCACCTCCCAACCCCGAG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAGTACAATGTGCTTCCACA.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTTACACCCTATGAGCCAGCA.NGG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GagB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCCTTCCCACAAGGGAAGGCCA.NGG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GagC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCGAGAGCGTCGGTATTAAGCG.NGG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GagD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGATAGATGTAAAAGACACCA.NGG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PolB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dCas9 NF-kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTACAAGGGACTTTCCGCTG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dCas9 Sp1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCATGGGCGGGACCGGGGAG.NGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dCas9 Sp1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCGTGGCATGGGCGGGACCG.NGG</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1129,6 +1210,34 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9.3"/>
+      <color rgb="FF575757"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="AdvOT1ef757c0"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1181,13 +1290,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1199,6 +1324,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF575757"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1207,21 +1392,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:F230"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="I226" activeCellId="0" sqref="I226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1241,7 +1425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>23974631</v>
       </c>
@@ -1261,7 +1445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>23974631</v>
       </c>
@@ -1281,7 +1465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>25049410</v>
       </c>
@@ -1301,7 +1485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>25049410</v>
       </c>
@@ -1321,7 +1505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>25049410</v>
       </c>
@@ -1341,7 +1525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>25049410</v>
       </c>
@@ -1361,7 +1545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1381,7 +1565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1401,7 +1585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1421,7 +1605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1441,7 +1625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1461,7 +1645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1481,7 +1665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1501,7 +1685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1521,7 +1705,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1541,7 +1725,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1561,7 +1745,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1581,7 +1765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1601,7 +1785,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1621,7 +1805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1641,7 +1825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1661,7 +1845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1681,7 +1865,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1701,7 +1885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1721,7 +1905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1741,7 +1925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1761,7 +1945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1781,7 +1965,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>25752527</v>
       </c>
@@ -1801,7 +1985,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>25808449</v>
       </c>
@@ -1821,7 +2005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>25808449</v>
       </c>
@@ -1841,7 +2025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>25808449</v>
       </c>
@@ -1861,7 +2045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>25808449</v>
       </c>
@@ -1881,7 +2065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>25808449</v>
       </c>
@@ -1901,7 +2085,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>25808449</v>
       </c>
@@ -1921,7 +2105,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>25808449</v>
       </c>
@@ -1941,7 +2125,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>25808449</v>
       </c>
@@ -1961,7 +2145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>25808449</v>
       </c>
@@ -1981,7 +2165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>25808449</v>
       </c>
@@ -2001,7 +2185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>26538064</v>
       </c>
@@ -2021,7 +2205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>26538064</v>
       </c>
@@ -2041,7 +2225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>26538064</v>
       </c>
@@ -2061,7 +2245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>26538064</v>
       </c>
@@ -2081,7 +2265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>26538064</v>
       </c>
@@ -2101,7 +2285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>26538064</v>
       </c>
@@ -2121,7 +2305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>26538064</v>
       </c>
@@ -2141,7 +2325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>26538064</v>
       </c>
@@ -2161,7 +2345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>26538064</v>
       </c>
@@ -2181,7 +2365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>26538064</v>
       </c>
@@ -2201,7 +2385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>26538064</v>
       </c>
@@ -2221,7 +2405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>26538064</v>
       </c>
@@ -2241,7 +2425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>26538064</v>
       </c>
@@ -2261,7 +2445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>26538064</v>
       </c>
@@ -2281,7 +2465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>26538064</v>
       </c>
@@ -2301,7 +2485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>26538064</v>
       </c>
@@ -2321,7 +2505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2341,7 +2525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2361,7 +2545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2381,7 +2565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2401,7 +2585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2421,7 +2605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2441,7 +2625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2461,7 +2645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2481,7 +2665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2501,7 +2685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2521,7 +2705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2541,7 +2725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2561,7 +2745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2581,7 +2765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2601,7 +2785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2621,7 +2805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2641,7 +2825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2661,7 +2845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2681,7 +2865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2701,7 +2885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2721,7 +2905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2741,7 +2925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2761,7 +2945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2781,7 +2965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2801,7 +2985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2821,7 +3005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2841,7 +3025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>26581162</v>
       </c>
@@ -2861,7 +3045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>26607397</v>
       </c>
@@ -2881,7 +3065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>26607397</v>
       </c>
@@ -2901,7 +3085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>26607397</v>
       </c>
@@ -2921,7 +3105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>26607397</v>
       </c>
@@ -2941,7 +3125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>26607397</v>
       </c>
@@ -2961,7 +3145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>26607397</v>
       </c>
@@ -2981,7 +3165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>26607397</v>
       </c>
@@ -3001,7 +3185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>26775808</v>
       </c>
@@ -3021,7 +3205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>26775808</v>
       </c>
@@ -3041,7 +3225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>26775808</v>
       </c>
@@ -3061,7 +3245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>26775808</v>
       </c>
@@ -3081,7 +3265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>26775808</v>
       </c>
@@ -3101,7 +3285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>26775808</v>
       </c>
@@ -3121,7 +3305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>26775808</v>
       </c>
@@ -3141,7 +3325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>26775808</v>
       </c>
@@ -3161,7 +3345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>26775808</v>
       </c>
@@ -3181,7 +3365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>26775808</v>
       </c>
@@ -3201,7 +3385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>26775808</v>
       </c>
@@ -3221,7 +3405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>26775808</v>
       </c>
@@ -3241,7 +3425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>26796669</v>
       </c>
@@ -3261,7 +3445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>26796669</v>
       </c>
@@ -3281,7 +3465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>26796669</v>
       </c>
@@ -3301,7 +3485,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <v>26796669</v>
       </c>
@@ -3321,7 +3505,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>26796669</v>
       </c>
@@ -3341,7 +3525,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>26796669</v>
       </c>
@@ -3361,7 +3545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>26796669</v>
       </c>
@@ -3381,7 +3565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>26796669</v>
       </c>
@@ -3401,7 +3585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>26796669</v>
       </c>
@@ -3421,7 +3605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>26796669</v>
       </c>
@@ -3441,7 +3625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>26796669</v>
       </c>
@@ -3461,7 +3645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>26796669</v>
       </c>
@@ -3481,7 +3665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>26796669</v>
       </c>
@@ -3501,7 +3685,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <v>26796669</v>
       </c>
@@ -3521,7 +3705,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>26796669</v>
       </c>
@@ -3541,7 +3725,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>26796669</v>
       </c>
@@ -3561,7 +3745,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>26796669</v>
       </c>
@@ -3581,7 +3765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>26796669</v>
       </c>
@@ -3601,7 +3785,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>26796669</v>
       </c>
@@ -3621,7 +3805,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <v>26939770</v>
       </c>
@@ -3641,7 +3825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <v>26939770</v>
       </c>
@@ -3661,7 +3845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <v>26939770</v>
       </c>
@@ -3681,7 +3865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
         <v>26939770</v>
       </c>
@@ -3701,7 +3885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -3721,7 +3905,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -3741,7 +3925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -3761,7 +3945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -3781,7 +3965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -3801,7 +3985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -3821,7 +4005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -3841,7 +4025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -3861,7 +4045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -3881,7 +4065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -3901,7 +4085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -3921,7 +4105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -3941,7 +4125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -3961,7 +4145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -3981,7 +4165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -4001,7 +4185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -4021,7 +4205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -4041,7 +4225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -4061,7 +4245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -4081,7 +4265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -4101,7 +4285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -4121,7 +4305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -4141,7 +4325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -4161,7 +4345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -4181,7 +4365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -4201,7 +4385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
         <v>26990633</v>
       </c>
@@ -4221,7 +4405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
         <v>27068471</v>
       </c>
@@ -4241,7 +4425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
         <v>27068471</v>
       </c>
@@ -4261,7 +4445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
         <v>27068471</v>
       </c>
@@ -4281,7 +4465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
         <v>27068471</v>
       </c>
@@ -4301,7 +4485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
         <v>27068471</v>
       </c>
@@ -4321,7 +4505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
         <v>27068471</v>
       </c>
@@ -4341,7 +4525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
         <v>27068471</v>
       </c>
@@ -4361,7 +4545,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
         <v>27068471</v>
       </c>
@@ -4381,7 +4565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
         <v>27194423</v>
       </c>
@@ -4401,7 +4585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
         <v>27194423</v>
       </c>
@@ -4421,7 +4605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
         <v>27278725</v>
       </c>
@@ -4441,7 +4625,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
         <v>27278725</v>
       </c>
@@ -4461,7 +4645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
         <v>27278725</v>
       </c>
@@ -4481,7 +4665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
         <v>27278725</v>
       </c>
@@ -4501,7 +4685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
         <v>27278725</v>
       </c>
@@ -4521,7 +4705,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
         <v>27278725</v>
       </c>
@@ -4541,7 +4725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
         <v>27341108</v>
       </c>
@@ -4561,7 +4745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
         <v>27341108</v>
       </c>
@@ -4581,7 +4765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
         <v>27341108</v>
       </c>
@@ -4601,7 +4785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
         <v>27341108</v>
       </c>
@@ -4621,7 +4805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
         <v>27341108</v>
       </c>
@@ -4641,7 +4825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
         <v>27341108</v>
       </c>
@@ -4661,7 +4845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
         <v>27341108</v>
       </c>
@@ -4681,7 +4865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
         <v>27341108</v>
       </c>
@@ -4701,7 +4885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
         <v>27341108</v>
       </c>
@@ -4721,7 +4905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
         <v>27404981</v>
       </c>
@@ -4741,7 +4925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
         <v>27404981</v>
       </c>
@@ -4761,7 +4945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
         <v>27404981</v>
       </c>
@@ -4781,7 +4965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
         <v>27404981</v>
       </c>
@@ -4801,7 +4985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
         <v>27404981</v>
       </c>
@@ -4821,7 +5005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
         <v>27404981</v>
       </c>
@@ -4841,7 +5025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
         <v>27528385</v>
       </c>
@@ -4861,7 +5045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
         <v>27528385</v>
       </c>
@@ -4881,7 +5065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
         <v>27974196</v>
       </c>
@@ -4901,7 +5085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
         <v>27974196</v>
       </c>
@@ -4921,7 +5105,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
         <v>27974196</v>
       </c>
@@ -4941,7 +5125,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
         <v>27974196</v>
       </c>
@@ -4961,7 +5145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
         <v>27974196</v>
       </c>
@@ -4981,7 +5165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
         <v>27974196</v>
       </c>
@@ -5001,7 +5185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
         <v>27974196</v>
       </c>
@@ -5021,7 +5205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
         <v>27974196</v>
       </c>
@@ -5041,7 +5225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
         <v>27974196</v>
       </c>
@@ -5061,7 +5245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
         <v>27974196</v>
       </c>
@@ -5081,7 +5265,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
         <v>27974196</v>
       </c>
@@ -5101,7 +5285,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
         <v>28176813</v>
       </c>
@@ -5121,7 +5305,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
         <v>28176813</v>
       </c>
@@ -5141,7 +5325,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
         <v>28176813</v>
       </c>
@@ -5161,7 +5345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="n">
         <v>28176813</v>
       </c>
@@ -5181,7 +5365,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
         <v>28176813</v>
       </c>
@@ -5201,7 +5385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="n">
         <v>28176813</v>
       </c>
@@ -5221,7 +5405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="n">
         <v>28176813</v>
       </c>
@@ -5241,7 +5425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="n">
         <v>28176813</v>
       </c>
@@ -5261,7 +5445,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="n">
         <v>28176813</v>
       </c>
@@ -5281,7 +5465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
         <v>28176813</v>
       </c>
@@ -5301,7 +5485,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="n">
         <v>28176813</v>
       </c>
@@ -5321,7 +5505,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="n">
         <v>28176813</v>
       </c>
@@ -5341,7 +5525,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="n">
         <v>28176813</v>
       </c>
@@ -5361,7 +5545,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
         <v>28176813</v>
       </c>
@@ -5381,7 +5565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="n">
         <v>28176813</v>
       </c>
@@ -5401,7 +5585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="n">
         <v>28176813</v>
       </c>
@@ -5421,7 +5605,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="n">
         <v>28176813</v>
       </c>
@@ -5439,6 +5623,386 @@
       </c>
       <c r="F211" s="0" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="2" t="n">
+        <v>26035832</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="C212" s="0" t="n">
+        <v>466</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>484</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F212" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="2" t="n">
+        <v>26035832</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C213" s="0" t="n">
+        <v>464</v>
+      </c>
+      <c r="D213" s="0" t="n">
+        <v>445</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F213" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="2" t="n">
+        <v>28729655</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C214" s="0" t="n">
+        <v>272</v>
+      </c>
+      <c r="D214" s="0" t="n">
+        <v>291</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F214" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="2" t="n">
+        <v>28729655</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C215" s="0" t="n">
+        <v>8964</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <v>8983</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F215" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="2" t="n">
+        <v>28729655</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C216" s="0" t="n">
+        <v>8379</v>
+      </c>
+      <c r="D216" s="0" t="n">
+        <v>8398</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F216" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="2" t="n">
+        <v>28729655</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C217" s="0" t="n">
+        <v>2982</v>
+      </c>
+      <c r="D217" s="0" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F217" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="n">
+        <v>28670581</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="0" t="n">
+        <v>465</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>484</v>
+      </c>
+      <c r="E218" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F218" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="n">
+        <v>28670581</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219" s="0" t="n">
+        <v>343</v>
+      </c>
+      <c r="D219" s="0" t="n">
+        <v>362</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F219" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2" t="n">
+        <v>28366764</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C220" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="D220" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F220" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="2" t="n">
+        <v>28366764</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C221" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="D221" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F221" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="2" t="n">
+        <v>28366764</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C222" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="D222" s="0" t="n">
+        <v>399</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F222" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2" t="n">
+        <v>28366764</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C223" s="0" t="n">
+        <v>2103</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <v>2124</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F223" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="2" t="n">
+        <v>28366764</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C224" s="0" t="n">
+        <v>796</v>
+      </c>
+      <c r="D224" s="0" t="n">
+        <v>817</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F224" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="2" t="n">
+        <v>28366764</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C225" s="0" t="n">
+        <v>1061</v>
+      </c>
+      <c r="D225" s="0" t="n">
+        <v>1081</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F225" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="2" t="n">
+        <v>28366764</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C226" s="0" t="n">
+        <v>4149</v>
+      </c>
+      <c r="D226" s="0" t="n">
+        <v>4168</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F226" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="n">
+        <v>25781496</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227" s="0" t="n">
+        <v>465</v>
+      </c>
+      <c r="D227" s="0" t="n">
+        <v>484</v>
+      </c>
+      <c r="E227" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F227" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="n">
+        <v>27698388</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C228" s="0" t="n">
+        <v>344</v>
+      </c>
+      <c r="D228" s="0" t="n">
+        <v>363</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F228" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="n">
+        <v>27698388</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C229" s="0" t="n">
+        <v>385</v>
+      </c>
+      <c r="D229" s="0" t="n">
+        <v>404</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F229" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="n">
+        <v>27698388</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C230" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="D230" s="0" t="n">
+        <v>399</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F230" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
